--- a/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7283626724722756</v>
+        <v>0.7283626724722757</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6881234051192238</v>
+        <v>0.6881234051192237</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7077697485941825</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6862799795289262</v>
+        <v>0.6955046534760975</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6534484446399612</v>
+        <v>0.6565423002800295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6843891131458307</v>
+        <v>0.6844085951067942</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7608207309779174</v>
+        <v>0.7623343751211639</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7138059199798501</v>
+        <v>0.7182441358157374</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7304292904246972</v>
+        <v>0.7289448417494987</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.7447803960389848</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7611634337658387</v>
+        <v>0.7611634337658385</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7500904267054207</v>
+        <v>0.7516371317667748</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.719629694684478</v>
+        <v>0.7199775366726527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7435365197749657</v>
+        <v>0.7421442431833077</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8064560809439497</v>
+        <v>0.8079191843155779</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7689015433496479</v>
+        <v>0.7669676031703164</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7764963790764861</v>
+        <v>0.77972653608487</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6234890022032715</v>
+        <v>0.6234890022032714</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.5959017292252792</v>
+        <v>0.5959017292252793</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.6096860512826334</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5855215811821073</v>
+        <v>0.5808034117059102</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5650797700124842</v>
+        <v>0.5610970527042748</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5836274782899755</v>
+        <v>0.5832580584141537</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6630963310593879</v>
+        <v>0.6616357399355617</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6283981473974984</v>
+        <v>0.6269536088077371</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6337660569741262</v>
+        <v>0.6360874147002067</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.6949387332125225</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.649271886309611</v>
+        <v>0.6492718863096109</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6710738629465242</v>
+        <v>0.671073862946524</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6598086439049147</v>
+        <v>0.6615880970380701</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6222785913360873</v>
+        <v>0.6227573404044193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6514433894579085</v>
+        <v>0.6509562248554154</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7251977070116984</v>
+        <v>0.7293462929046537</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6734934506496757</v>
+        <v>0.6776279294010032</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6913389776665151</v>
+        <v>0.692721378000403</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.7092563107716615</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6727549594325423</v>
+        <v>0.6727549594325424</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.6905879739813898</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6921934337508138</v>
+        <v>0.6925812694729263</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6585581251281744</v>
+        <v>0.6584220275840509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6792030433634652</v>
+        <v>0.6791291982415104</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.726283416402319</v>
+        <v>0.7262851944340722</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6863909456596489</v>
+        <v>0.6864962030105668</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7015946546201748</v>
+        <v>0.7013408694940335</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>414707</v>
+        <v>420282</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>413892</v>
+        <v>415852</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>847055</v>
+        <v>847079</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>459751</v>
+        <v>460666</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>452123</v>
+        <v>454934</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>904038</v>
+        <v>902200</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>711875</v>
+        <v>713343</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>707900</v>
+        <v>708243</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1437072</v>
+        <v>1434382</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>765369</v>
+        <v>766757</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>756369</v>
+        <v>754467</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1500776</v>
+        <v>1507019</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>437249</v>
+        <v>433726</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>422554</v>
+        <v>419576</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>872259</v>
+        <v>871707</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>495180</v>
+        <v>494089</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>469902</v>
+        <v>468822</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>947193</v>
+        <v>950663</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>593369</v>
+        <v>594969</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>612569</v>
+        <v>613040</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1227125</v>
+        <v>1226207</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>652174</v>
+        <v>655905</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>662984</v>
+        <v>667054</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1302276</v>
+        <v>1304880</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2214609</v>
+        <v>2215850</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2205691</v>
+        <v>2205235</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4447884</v>
+        <v>4447400</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2323677</v>
+        <v>2323683</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2298911</v>
+        <v>2299263</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4594520</v>
+        <v>4592858</v>
       </c>
     </row>
     <row r="24">
